--- a/report/prest/malaria_summary.xlsx
+++ b/report/prest/malaria_summary.xlsx
@@ -21,10 +21,10 @@
     <t>Title: Malaria Summary</t>
   </si>
   <si>
-    <t>Post:  Gihundwe</t>
-  </si>
-  <si>
-    <t>Month: 08/2018</t>
+    <t>Post:  Kigoma</t>
+  </si>
+  <si>
+    <t>Month: 12/2019</t>
   </si>
   <si>
     <t xml:space="preserve"> 01</t>
@@ -704,42 +704,46 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+      <c r="S6" s="5">
+        <v>1</v>
+      </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5">
-        <v>1</v>
-      </c>
+      <c r="V6" s="5">
+        <v>1</v>
+      </c>
+      <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
+      <c r="AC6" s="5">
+        <v>1</v>
+      </c>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
-      <c r="AF6" s="5">
-        <v>1</v>
-      </c>
+      <c r="AF6" s="5"/>
       <c r="AG6" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -749,26 +753,18 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
       <c r="O7" s="5"/>
-      <c r="P7" s="5">
-        <v>1</v>
-      </c>
+      <c r="P7" s="5"/>
       <c r="Q7" s="5">
         <v>1</v>
       </c>
-      <c r="R7" s="5">
-        <v>1</v>
-      </c>
-      <c r="S7" s="5">
-        <v>1</v>
-      </c>
-      <c r="T7" s="5">
-        <v>2</v>
-      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -784,7 +780,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="8">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -792,44 +788,48 @@
         <v>37</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="5">
+        <v>1</v>
+      </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="T8" s="5">
+        <v>1</v>
+      </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="5">
-        <v>1</v>
-      </c>
+      <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="5">
-        <v>1</v>
-      </c>
+      <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -839,82 +839,76 @@
       <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
       <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
         <v>3</v>
       </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2</v>
+      </c>
+      <c r="K9" s="5">
         <v>3</v>
       </c>
-      <c r="I9" s="5">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
         <v>2</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5">
+        <v>3</v>
+      </c>
+      <c r="R9" s="5">
         <v>2</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5">
+      <c r="S9" s="5">
         <v>2</v>
       </c>
-      <c r="O9" s="5">
-        <v>1</v>
-      </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
       <c r="T9" s="5">
         <v>1</v>
       </c>
-      <c r="U9" s="5">
-        <v>1</v>
-      </c>
+      <c r="U9" s="5"/>
       <c r="V9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" s="5"/>
       <c r="X9" s="5">
         <v>2</v>
       </c>
       <c r="Y9" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z9" s="5">
         <v>1</v>
       </c>
-      <c r="AA9" s="5">
-        <v>3</v>
-      </c>
+      <c r="AA9" s="5"/>
       <c r="AB9" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD9" s="5">
         <v>1</v>
       </c>
-      <c r="AE9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>2</v>
-      </c>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
       <c r="AG9" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -932,18 +926,16 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5">
-        <v>1</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1</v>
-      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="T10" s="5">
+        <v>1</v>
+      </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -957,7 +949,7 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -974,20 +966,18 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
+      <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="5">
-        <v>1</v>
-      </c>
+      <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="U11" s="5">
+        <v>1</v>
+      </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
@@ -1000,7 +990,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1008,38 +998,32 @@
         <v>41</v>
       </c>
       <c r="B12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
       </c>
       <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
         <v>3</v>
       </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="5">
         <v>2</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="5">
+        <v>2</v>
+      </c>
       <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5">
         <v>3</v>
       </c>
+      <c r="L12" s="5"/>
       <c r="M12" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" s="5">
         <v>3</v>
@@ -1047,17 +1031,15 @@
       <c r="O12" s="5">
         <v>1</v>
       </c>
-      <c r="P12" s="5">
-        <v>1</v>
-      </c>
+      <c r="P12" s="5"/>
       <c r="Q12" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R12" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S12" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T12" s="5">
         <v>3</v>
@@ -1068,51 +1050,39 @@
       <c r="V12" s="5">
         <v>2</v>
       </c>
-      <c r="W12" s="5">
-        <v>2</v>
-      </c>
+      <c r="W12" s="5"/>
       <c r="X12" s="5">
         <v>2</v>
       </c>
       <c r="Y12" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z12" s="5">
         <v>1</v>
       </c>
-      <c r="AA12" s="5">
-        <v>3</v>
-      </c>
+      <c r="AA12" s="5"/>
       <c r="AB12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="5">
         <v>4</v>
       </c>
-      <c r="AC12" s="5">
-        <v>2</v>
-      </c>
       <c r="AD12" s="5">
-        <v>2</v>
-      </c>
-      <c r="AE12" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="5">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
       <c r="AG12" s="8">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1142,7 +1112,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -1188,13 +1158,9 @@
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1224,7 +1190,7 @@
       <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
